--- a/xlsx/圣安娜 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/圣安娜 (加利福尼亚州)_intext.xlsx
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E5%90%84%E9%83%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>加利福尼亞州各郡列表</t>
+    <t>加利福尼亚州各郡列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E6%B2%BB%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧蘭治郡 (加利福尼亞州)</t>
+    <t>奥兰治郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%B7</t>
   </si>
   <si>
-    <t>市長</t>
+    <t>市长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%B3%87%E6%96%99%E8%99%95%E7%90%86%E6%A8%99%E6%BA%96</t>
   </si>
   <si>
-    <t>聯邦資料處理標準</t>
+    <t>联邦资料处理标准</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%90%8D%E4%BF%A1%E6%81%AF%E7%B3%BB%E7%BB%9F</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/United_States_Census_Bureau</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E9%80%89%E4%B8%BE</t>
@@ -173,19 +173,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF</t>
@@ -371,25 +371,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -401,31 +401,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -545,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B2%83%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -629,19 +629,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -653,13 +653,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -785,13 +785,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%8D%8A%E5%B2%9B</t>
@@ -821,19 +821,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖塔克拉拉谷</t>
+    <t>圣塔克拉拉谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -845,13 +845,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
